--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3278,10 +3290,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3325,28 +3337,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3371,28 +3383,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3451,10 +3463,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3498,28 +3510,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3544,28 +3556,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3624,10 +3636,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3671,28 +3683,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3717,28 +3729,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3797,10 +3809,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3844,28 +3856,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3890,28 +3902,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4029,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4075,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4143,10 +4155,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4190,28 +4202,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4236,28 +4248,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4316,10 +4328,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4363,28 +4375,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4409,28 +4421,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4547,10 +4559,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4594,28 +4606,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4640,28 +4652,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4720,10 +4732,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4767,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4813,28 +4825,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4905,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4940,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +4998,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5066,10 +5078,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5113,28 +5125,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5159,28 +5171,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5268,10 +5280,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5315,28 +5327,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5361,28 +5373,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5441,10 +5453,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5488,28 +5500,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5534,28 +5546,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5875,10 +5887,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5922,28 +5934,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5968,28 +5980,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6077,10 +6089,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6124,28 +6136,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6170,28 +6182,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6308,10 +6320,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6355,28 +6367,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6401,28 +6413,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6481,10 +6493,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6528,28 +6540,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6574,28 +6586,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6654,10 +6666,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6701,28 +6713,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6747,28 +6759,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6827,10 +6839,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6874,28 +6886,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6920,28 +6932,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7000,10 +7012,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7047,28 +7059,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7093,28 +7105,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7173,10 +7185,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7220,28 +7232,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7266,28 +7278,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7346,10 +7358,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7393,28 +7405,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7439,28 +7451,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8184,10 +8196,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8231,28 +8243,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8277,28 +8289,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8357,10 +8369,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8404,28 +8416,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8450,28 +8462,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
